--- a/results.xlsx
+++ b/results.xlsx
@@ -459,19 +459,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4682.8</v>
+        <v>4461.18</v>
       </c>
       <c r="C2" t="n">
-        <v>4700.9</v>
+        <v>4511.61</v>
       </c>
       <c r="D2" t="n">
-        <v>4688.67</v>
+        <v>4456.24</v>
       </c>
       <c r="E2" t="n">
-        <v>4704.54</v>
+        <v>4520.16</v>
       </c>
       <c r="F2" t="n">
-        <v>4697.96</v>
+        <v>4543.06</v>
       </c>
     </row>
     <row r="3">
@@ -481,19 +481,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>36087.45</v>
+        <v>34552.99</v>
       </c>
       <c r="C3" t="n">
-        <v>36142.22</v>
+        <v>34807.46</v>
       </c>
       <c r="D3" t="n">
-        <v>35931.05</v>
+        <v>34358.5</v>
       </c>
       <c r="E3" t="n">
-        <v>35870.95</v>
+        <v>34707.94</v>
       </c>
       <c r="F3" t="n">
-        <v>35601.98</v>
+        <v>34861.24</v>
       </c>
     </row>
     <row r="4">
@@ -503,19 +503,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7351.86</v>
+        <v>7442.39</v>
       </c>
       <c r="C4" t="n">
-        <v>7326.97</v>
+        <v>7476.72</v>
       </c>
       <c r="D4" t="n">
-        <v>7291.2</v>
+        <v>7460.63</v>
       </c>
       <c r="E4" t="n">
-        <v>7255.96</v>
+        <v>7467.38</v>
       </c>
       <c r="F4" t="n">
-        <v>7223.57</v>
+        <v>7483.35</v>
       </c>
     </row>
     <row r="5">
@@ -525,19 +525,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>16148.64</v>
+        <v>14326.97</v>
       </c>
       <c r="C5" t="n">
-        <v>16247.86</v>
+        <v>14473.2</v>
       </c>
       <c r="D5" t="n">
-        <v>16251.13</v>
+        <v>14283.65</v>
       </c>
       <c r="E5" t="n">
-        <v>16221.73</v>
+        <v>14273.79</v>
       </c>
       <c r="F5" t="n">
-        <v>16159.97</v>
+        <v>14305.76</v>
       </c>
     </row>
     <row r="6">
@@ -547,19 +547,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7128.63</v>
+        <v>6582.33</v>
       </c>
       <c r="C6" t="n">
-        <v>7152.6</v>
+        <v>6659.41</v>
       </c>
       <c r="D6" t="n">
-        <v>7156.85</v>
+        <v>6581.43</v>
       </c>
       <c r="E6" t="n">
-        <v>7141.98</v>
+        <v>6555.77</v>
       </c>
       <c r="F6" t="n">
-        <v>7112.29</v>
+        <v>6553.68</v>
       </c>
     </row>
     <row r="7">
@@ -569,19 +569,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4386.19</v>
+        <v>3881.8</v>
       </c>
       <c r="C7" t="n">
-        <v>4401.49</v>
+        <v>3926.12</v>
       </c>
       <c r="D7" t="n">
-        <v>4400.81</v>
+        <v>3869.22</v>
       </c>
       <c r="E7" t="n">
-        <v>4383.7</v>
+        <v>3863.39</v>
       </c>
       <c r="F7" t="n">
-        <v>4356.47</v>
+        <v>3867.73</v>
       </c>
     </row>
     <row r="8">
@@ -591,19 +591,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3533.3</v>
+        <v>3253.69</v>
       </c>
       <c r="C8" t="n">
-        <v>3521.79</v>
+        <v>3259.86</v>
       </c>
       <c r="D8" t="n">
-        <v>3537.37</v>
+        <v>3271.03</v>
       </c>
       <c r="E8" t="n">
-        <v>3520.71</v>
+        <v>3250.26</v>
       </c>
       <c r="F8" t="n">
-        <v>3560.37</v>
+        <v>3212.24</v>
       </c>
     </row>
     <row r="9">
@@ -613,19 +613,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>29776.8</v>
+        <v>26827.43</v>
       </c>
       <c r="C9" t="n">
-        <v>29808.12</v>
+        <v>27224.11</v>
       </c>
       <c r="D9" t="n">
-        <v>29688.33</v>
+        <v>28040.16</v>
       </c>
       <c r="E9" t="n">
-        <v>29598.66</v>
+        <v>28110.39</v>
       </c>
       <c r="F9" t="n">
-        <v>29745.87</v>
+        <v>28149.84</v>
       </c>
     </row>
     <row r="10">
@@ -635,19 +635,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3226.45</v>
+        <v>3010.08</v>
       </c>
       <c r="C10" t="n">
-        <v>3231.95</v>
+        <v>3040.37</v>
       </c>
       <c r="D10" t="n">
-        <v>3221.03</v>
+        <v>3012.79</v>
       </c>
       <c r="E10" t="n">
-        <v>3226.37</v>
+        <v>3041.48</v>
       </c>
       <c r="F10" t="n">
-        <v>3219.9</v>
+        <v>3049.11</v>
       </c>
     </row>
     <row r="11">
@@ -657,19 +657,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1286.82</v>
+        <v>1115.26</v>
       </c>
       <c r="C11" t="n">
-        <v>1290.55</v>
+        <v>1131.41</v>
       </c>
       <c r="D11" t="n">
-        <v>1286.87</v>
+        <v>1140.72</v>
       </c>
       <c r="E11" t="n">
-        <v>1273.87</v>
+        <v>1136.95</v>
       </c>
       <c r="F11" t="n">
-        <v>1269.22</v>
+        <v>1125.01</v>
       </c>
     </row>
     <row r="12">
@@ -679,19 +679,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>16.49</v>
+        <v>23.53</v>
       </c>
       <c r="C12" t="n">
-        <v>16.37</v>
+        <v>22.94</v>
       </c>
       <c r="D12" t="n">
-        <v>17.11</v>
+        <v>23.57</v>
       </c>
       <c r="E12" t="n">
-        <v>17.59</v>
+        <v>21.67</v>
       </c>
       <c r="F12" t="n">
-        <v>17.91</v>
+        <v>20.81</v>
       </c>
     </row>
     <row r="13">
@@ -701,19 +701,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>82.05</v>
+        <v>107.93</v>
       </c>
       <c r="C13" t="n">
-        <v>82.43000000000001</v>
+        <v>115.62</v>
       </c>
       <c r="D13" t="n">
-        <v>80.28</v>
+        <v>115.48</v>
       </c>
       <c r="E13" t="n">
-        <v>81.23999999999999</v>
+        <v>121.6</v>
       </c>
       <c r="F13" t="n">
-        <v>78.89</v>
+        <v>115.3</v>
       </c>
     </row>
     <row r="14">
@@ -723,19 +723,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1866.6</v>
+        <v>1929.3</v>
       </c>
       <c r="C14" t="n">
-        <v>1854.1</v>
+        <v>1929.5</v>
       </c>
       <c r="D14" t="n">
-        <v>1870.2</v>
+        <v>1921.5</v>
       </c>
       <c r="E14" t="n">
-        <v>1861.4</v>
+        <v>1937.3</v>
       </c>
       <c r="F14" t="n">
-        <v>1851.6</v>
+        <v>1962.2</v>
       </c>
     </row>
     <row r="15">
@@ -745,19 +745,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.1366</v>
+        <v>1.1017</v>
       </c>
       <c r="C15" t="n">
-        <v>1.1321</v>
+        <v>1.103</v>
       </c>
       <c r="D15" t="n">
-        <v>1.1319</v>
+        <v>1.1005</v>
       </c>
       <c r="E15" t="n">
-        <v>1.1374</v>
+        <v>1.0997</v>
       </c>
       <c r="F15" t="n">
-        <v>1.128</v>
+        <v>1.0981</v>
       </c>
     </row>
     <row r="16">
@@ -767,19 +767,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>114.14</v>
+        <v>119.47</v>
       </c>
       <c r="C16" t="n">
-        <v>114.83</v>
+        <v>120.8</v>
       </c>
       <c r="D16" t="n">
-        <v>114.11</v>
+        <v>121.15</v>
       </c>
       <c r="E16" t="n">
-        <v>114.26</v>
+        <v>122.37</v>
       </c>
       <c r="F16" t="n">
-        <v>114.03</v>
+        <v>122.05</v>
       </c>
     </row>
     <row r="17">
@@ -789,19 +789,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.3415</v>
+        <v>1.3169</v>
       </c>
       <c r="C17" t="n">
-        <v>1.3429</v>
+        <v>1.3262</v>
       </c>
       <c r="D17" t="n">
-        <v>1.349</v>
+        <v>1.3207</v>
       </c>
       <c r="E17" t="n">
-        <v>1.3498</v>
+        <v>1.3187</v>
       </c>
       <c r="F17" t="n">
-        <v>1.3447</v>
+        <v>1.3181</v>
       </c>
     </row>
     <row r="18">
@@ -811,41 +811,41 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9252</v>
+        <v>0.9338</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9303</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9284</v>
+        <v>0.9306</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9257</v>
+        <v>0.9302</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9285</v>
+        <v>0.9307</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>EONIA</t>
+          <t>€STER</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.49</v>
+        <v>-0.578</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.487</v>
+        <v>-0.578</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.484</v>
+        <v>-0.578</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.486</v>
+        <v>-0.578</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.486</v>
+        <v>-0.579</v>
       </c>
     </row>
     <row r="20">
@@ -855,19 +855,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.155</v>
+        <v>0.9340000000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>0.15788</v>
+        <v>0.95757</v>
       </c>
       <c r="D20" t="n">
-        <v>0.16</v>
+        <v>0.9537099999999999</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1575</v>
+        <v>0.96571</v>
       </c>
       <c r="F20" t="n">
-        <v>0.15963</v>
+        <v>0.96557</v>
       </c>
     </row>
     <row r="21">
@@ -877,19 +877,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.5620000000000001</v>
+        <v>-0.487</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.5610000000000001</v>
+        <v>-0.494</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.5580000000000001</v>
+        <v>-0.499</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.5669999999999999</v>
+        <v>-0.493</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.5639999999999999</v>
+        <v>-0.483</v>
       </c>
     </row>
     <row r="22">
@@ -899,19 +899,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.584</v>
+        <v>2.294</v>
       </c>
       <c r="C22" t="n">
-        <v>1.64</v>
+        <v>2.385</v>
       </c>
       <c r="D22" t="n">
-        <v>1.592</v>
+        <v>2.295</v>
       </c>
       <c r="E22" t="n">
-        <v>1.608</v>
+        <v>2.375</v>
       </c>
       <c r="F22" t="n">
-        <v>1.549</v>
+        <v>2.479</v>
       </c>
     </row>
     <row r="23">
@@ -921,19 +921,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.226</v>
+        <v>0.47</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.241</v>
+        <v>0.506</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.243</v>
+        <v>0.466</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.275</v>
+        <v>0.534</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.34</v>
+        <v>0.589</v>
       </c>
     </row>
     <row r="24">
@@ -943,19 +943,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.115</v>
+        <v>0.913</v>
       </c>
       <c r="C24" t="n">
-        <v>0.112</v>
+        <v>0.969</v>
       </c>
       <c r="D24" t="n">
-        <v>0.115</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E24" t="n">
-        <v>0.06900000000000001</v>
+        <v>0.983</v>
       </c>
       <c r="F24" t="n">
-        <v>0.005</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="25">
@@ -965,19 +965,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.068</v>
+        <v>0.208</v>
       </c>
       <c r="C25" t="n">
-        <v>0.076</v>
+        <v>0.219</v>
       </c>
       <c r="D25" t="n">
-        <v>0.074</v>
+        <v>0.226</v>
       </c>
       <c r="E25" t="n">
-        <v>0.08400000000000001</v>
+        <v>0.24</v>
       </c>
       <c r="F25" t="n">
-        <v>0.079</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="26">
@@ -987,19 +987,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.986</v>
+        <v>1.978</v>
       </c>
       <c r="C26" t="n">
-        <v>0.97</v>
+        <v>2.039</v>
       </c>
       <c r="D26" t="n">
-        <v>0.983</v>
+        <v>1.996</v>
       </c>
       <c r="E26" t="n">
-        <v>0.929</v>
+        <v>2.058</v>
       </c>
       <c r="F26" t="n">
-        <v>0.863</v>
+        <v>2.081</v>
       </c>
     </row>
   </sheetData>
@@ -1060,19 +1060,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4649.27</v>
+        <v>4411.67</v>
       </c>
       <c r="C2" t="n">
-        <v>4697.96</v>
+        <v>4543.06</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01047261182938386</v>
+        <v>0.02978237266159978</v>
       </c>
       <c r="E2" t="n">
-        <v>3700.65</v>
+        <v>4796.56</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2694958993690297</v>
+        <v>-0.05285037610287372</v>
       </c>
     </row>
     <row r="3">
@@ -1082,19 +1082,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35921.23</v>
+        <v>34480.76</v>
       </c>
       <c r="C3" t="n">
-        <v>35601.98</v>
+        <v>34861.24</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.008887501903470429</v>
+        <v>0.01103455956307209</v>
       </c>
       <c r="E3" t="n">
-        <v>30223.89</v>
+        <v>36585.06</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1779416878502404</v>
+        <v>-0.04711814057432186</v>
       </c>
     </row>
     <row r="4">
@@ -1104,19 +1104,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7384.18</v>
+        <v>7385.34</v>
       </c>
       <c r="C4" t="n">
-        <v>7223.57</v>
+        <v>7483.35</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.02175055320969976</v>
+        <v>0.01327088529438059</v>
       </c>
       <c r="E4" t="n">
-        <v>6571.88</v>
+        <v>7505.15</v>
       </c>
       <c r="F4" t="n">
-        <v>0.09916340529650565</v>
+        <v>-0.00290467212514064</v>
       </c>
     </row>
     <row r="5">
@@ -1126,19 +1126,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>16083.11</v>
+        <v>14388.06</v>
       </c>
       <c r="C5" t="n">
-        <v>16159.97</v>
+        <v>14305.76</v>
       </c>
       <c r="D5" t="n">
-        <v>0.004778926463849364</v>
+        <v>-0.005720020628215305</v>
       </c>
       <c r="E5" t="n">
-        <v>13726.74</v>
+        <v>16020.73</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1772620447389547</v>
+        <v>-0.107046932318315</v>
       </c>
     </row>
     <row r="6">
@@ -1148,19 +1148,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7059.55</v>
+        <v>6612.52</v>
       </c>
       <c r="C6" t="n">
-        <v>7112.29</v>
+        <v>6553.68</v>
       </c>
       <c r="D6" t="n">
-        <v>0.007470731137253717</v>
+        <v>-0.00889827176326119</v>
       </c>
       <c r="E6" t="n">
-        <v>5588.96</v>
+        <v>7217.22</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2725605479373622</v>
+        <v>-0.09193844721374711</v>
       </c>
     </row>
     <row r="7">
@@ -1170,19 +1170,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4358</v>
+        <v>3885.32</v>
       </c>
       <c r="C7" t="n">
-        <v>4356.47</v>
+        <v>3867.73</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.0003510784763652852</v>
+        <v>-0.004527297622847093</v>
       </c>
       <c r="E7" t="n">
-        <v>3564.39</v>
+        <v>4331.82</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2222203518694645</v>
+        <v>-0.1071351071835856</v>
       </c>
     </row>
     <row r="8">
@@ -1192,19 +1192,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3532.79</v>
+        <v>3215.04</v>
       </c>
       <c r="C8" t="n">
-        <v>3560.37</v>
+        <v>3212.24</v>
       </c>
       <c r="D8" t="n">
-        <v>0.007806860866340637</v>
+        <v>-0.0008709067383299018</v>
       </c>
       <c r="E8" t="n">
-        <v>3502.96</v>
+        <v>3632.33</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01638899673419047</v>
+        <v>-0.1156530381325486</v>
       </c>
     </row>
     <row r="9">
@@ -1214,19 +1214,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>29277.86</v>
+        <v>25762.01</v>
       </c>
       <c r="C9" t="n">
-        <v>29745.87</v>
+        <v>28149.84</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0159851163985345</v>
+        <v>0.09268803171802209</v>
       </c>
       <c r="E9" t="n">
-        <v>27258.38</v>
+        <v>29301.79</v>
       </c>
       <c r="F9" t="n">
-        <v>0.09125597339240255</v>
+        <v>-0.03931329792480257</v>
       </c>
     </row>
     <row r="10">
@@ -1236,19 +1236,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3201.99</v>
+        <v>2981.31</v>
       </c>
       <c r="C10" t="n">
-        <v>3219.9</v>
+        <v>3049.11</v>
       </c>
       <c r="D10" t="n">
-        <v>0.00559339660648539</v>
+        <v>0.0227416806705778</v>
       </c>
       <c r="E10" t="n">
-        <v>2690.04</v>
+        <v>3241.43</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1969710487576393</v>
+        <v>-0.05933183810848907</v>
       </c>
     </row>
     <row r="11">
@@ -1258,19 +1258,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1281.4</v>
+        <v>1120.93</v>
       </c>
       <c r="C11" t="n">
-        <v>1269.22</v>
+        <v>1125.01</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.009505228656157327</v>
+        <v>0.00363983478004859</v>
       </c>
       <c r="E11" t="n">
-        <v>1291.75</v>
+        <v>1233.5</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.01744145538997482</v>
+        <v>-0.08795297932711796</v>
       </c>
     </row>
     <row r="12">
@@ -1280,19 +1280,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>17.66</v>
+        <v>25.67</v>
       </c>
       <c r="C12" t="n">
-        <v>17.91</v>
+        <v>20.81</v>
       </c>
       <c r="D12" t="n">
-        <v>0.01415628539071356</v>
+        <v>-0.1893260615504481</v>
       </c>
       <c r="E12" t="n">
-        <v>26.97</v>
+        <v>16.6</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.335928809788654</v>
+        <v>0.2536144578313251</v>
       </c>
     </row>
     <row r="13">
@@ -1302,19 +1302,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>78.66</v>
+        <v>116.83</v>
       </c>
       <c r="C13" t="n">
-        <v>78.89</v>
+        <v>115.3</v>
       </c>
       <c r="D13" t="n">
-        <v>0.002923976608187218</v>
+        <v>-0.01309595138235042</v>
       </c>
       <c r="E13" t="n">
-        <v>51.09</v>
+        <v>78.98</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5441377960461929</v>
+        <v>0.459863256520638</v>
       </c>
     </row>
     <row r="14">
@@ -1324,19 +1324,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1846.8</v>
+        <v>1957.6</v>
       </c>
       <c r="C14" t="n">
-        <v>1851.6</v>
+        <v>1962.2</v>
       </c>
       <c r="D14" t="n">
-        <v>0.002599090318388564</v>
+        <v>0.002349816101348656</v>
       </c>
       <c r="E14" t="n">
-        <v>1895.1</v>
+        <v>1800.1</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.02295393382934938</v>
+        <v>0.09005055274706969</v>
       </c>
     </row>
     <row r="15">
@@ -1346,19 +1346,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.1448</v>
+        <v>1.1094</v>
       </c>
       <c r="C15" t="n">
-        <v>1.128</v>
+        <v>1.0981</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.01467505241090161</v>
+        <v>-0.0101856859563727</v>
       </c>
       <c r="E15" t="n">
-        <v>1.2215</v>
+        <v>1.1299</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.07654523127302508</v>
+        <v>-0.02814408354721642</v>
       </c>
     </row>
     <row r="16">
@@ -1368,19 +1368,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>114.06</v>
+        <v>118.59</v>
       </c>
       <c r="C16" t="n">
-        <v>114.03</v>
+        <v>122.05</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.0002630194634403171</v>
+        <v>0.02917615313264177</v>
       </c>
       <c r="E16" t="n">
-        <v>103.24</v>
+        <v>115.32</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1045137543587757</v>
+        <v>0.05835934790149154</v>
       </c>
     </row>
     <row r="17">
@@ -1390,19 +1390,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.3368</v>
+        <v>1.3148</v>
       </c>
       <c r="C17" t="n">
-        <v>1.3447</v>
+        <v>1.3181</v>
       </c>
       <c r="D17" t="n">
-        <v>0.005909634949132325</v>
+        <v>0.002509887435351521</v>
       </c>
       <c r="E17" t="n">
-        <v>1.3673</v>
+        <v>1.3482</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.01652892561983468</v>
+        <v>-0.02232606438213916</v>
       </c>
     </row>
     <row r="18">
@@ -1412,41 +1412,41 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9209000000000001</v>
+        <v>0.9368</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9285</v>
+        <v>0.9307</v>
       </c>
       <c r="D18" t="n">
-        <v>0.008252796177652177</v>
+        <v>-0.006511528608027284</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8849</v>
+        <v>0.919</v>
       </c>
       <c r="F18" t="n">
-        <v>0.04927110407955698</v>
+        <v>0.01273122959738839</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>EONIA</t>
+          <t>€STER</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.00489</v>
+        <v>-0.005759999999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.00486</v>
+        <v>-0.00579</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3000000000000052</v>
+        <v>-0.3000000000000052</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.00481</v>
+        <v>-0.00578</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.499999999999997</v>
+        <v>-0.1000000000000046</v>
       </c>
     </row>
     <row r="20">
@@ -1456,19 +1456,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.0014438</v>
+        <v>0.0080286</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0015963</v>
+        <v>0.0096557</v>
       </c>
       <c r="D20" t="n">
-        <v>1.524999999999999</v>
+        <v>16.27099999999999</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0023725</v>
+        <v>0.00216</v>
       </c>
       <c r="F20" t="n">
-        <v>-7.762000000000001</v>
+        <v>74.95699999999999</v>
       </c>
     </row>
     <row r="21">
@@ -1478,19 +1478,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.005679999999999999</v>
+        <v>-0.00505</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.005639999999999999</v>
+        <v>-0.00483</v>
       </c>
       <c r="D21" t="n">
-        <v>0.400000000000001</v>
+        <v>2.199999999999997</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.00546</v>
+        <v>-0.00565</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.799999999999996</v>
+        <v>8.199999999999996</v>
       </c>
     </row>
     <row r="22">
@@ -1500,19 +1500,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.01554</v>
+        <v>0.02177</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01549</v>
+        <v>0.02479</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.5000000000000143</v>
+        <v>30.19999999999999</v>
       </c>
       <c r="E22" t="n">
-        <v>0.009169999999999999</v>
+        <v>0.01631</v>
       </c>
       <c r="F22" t="n">
-        <v>63.2</v>
+        <v>84.79999999999998</v>
       </c>
     </row>
     <row r="23">
@@ -1522,19 +1522,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.0023</v>
+        <v>0.00388</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.0034</v>
+        <v>0.005889999999999999</v>
       </c>
       <c r="D23" t="n">
-        <v>-11</v>
+        <v>20.09999999999999</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.00605</v>
+        <v>-0.0012</v>
       </c>
       <c r="F23" t="n">
-        <v>26.5</v>
+        <v>70.89999999999999</v>
       </c>
     </row>
     <row r="24">
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.00127</v>
+        <v>0.008449999999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>5e-05</v>
+        <v>0.0101</v>
       </c>
       <c r="D24" t="n">
-        <v>-12.2</v>
+        <v>16.5</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.00365</v>
+        <v>0.00239</v>
       </c>
       <c r="F24" t="n">
-        <v>37</v>
+        <v>77.09999999999999</v>
       </c>
     </row>
     <row r="25">
@@ -1566,19 +1566,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.0007099999999999999</v>
+        <v>0.00203</v>
       </c>
       <c r="C25" t="n">
-        <v>0.00079</v>
+        <v>0.0024</v>
       </c>
       <c r="D25" t="n">
-        <v>0.800000000000001</v>
+        <v>3.699999999999997</v>
       </c>
       <c r="E25" t="n">
-        <v>0.00045</v>
+        <v>0.0007199999999999999</v>
       </c>
       <c r="F25" t="n">
-        <v>3.4</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="26">
@@ -1588,19 +1588,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.00961</v>
+        <v>0.01917</v>
       </c>
       <c r="C26" t="n">
-        <v>0.008630000000000001</v>
+        <v>0.02081</v>
       </c>
       <c r="D26" t="n">
-        <v>-9.799999999999999</v>
+        <v>16.39999999999999</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0005509999999999999</v>
+        <v>0.01195</v>
       </c>
       <c r="F26" t="n">
-        <v>80.79000000000001</v>
+        <v>88.59999999999998</v>
       </c>
     </row>
   </sheetData>
